--- a/data/original/exercises/020-qualtrics/030-020-020-ex2.xlsx
+++ b/data/original/exercises/020-qualtrics/030-020-020-ex2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,6 +539,121 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44523.82418981481</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44523.8263425926</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>186</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44523.82635416667</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1dabec</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer(`Cases_Guinea`:last_col()) %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
+  drop_na()</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44523.82447916667</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44523.8337962963</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>804</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.8337962963</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1davec</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ebola &lt;- read_csv("ebola.csv")
+ebola_tidy &lt;- ebola %&gt;%
+  pivot_longer(`Cases_Guinea`:last_col()) %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;% drop_na()</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.18385416667</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.18526620371</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>121</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.87954861111</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
